--- a/biology/Zoologie/Bothrolycus_ater/Bothrolycus_ater.xlsx
+++ b/biology/Zoologie/Bothrolycus_ater/Bothrolycus_ater.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bothrolycus ater, unique représentant du genre Bothrolycus, est une espèce de serpents de la famille des Lamprophiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bothrolycus ater, unique représentant du genre Bothrolycus, est une espèce de serpents de la famille des Lamprophiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Cameroun ;
 en Guinée équatoriale ;
 au Gabon ;
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Bothrolycus ater[2] mesure 46 cm dont 4 mm pour la queue. Son dos est uniformément noir et sa face ventrale brun noirâtre. Certaines écailles des lèvres présentent de petites taches jaunâtres bordées de sombre. De très petites taches similaires sont également présentes au niveau des ventrales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Bothrolycus ater mesure 46 cm dont 4 mm pour la queue. Son dos est uniformément noir et sa face ventrale brun noirâtre. Certaines écailles des lèvres présentent de petites taches jaunâtres bordées de sombre. De très petites taches similaires sont également présentes au niveau des ventrales.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du latin ater, « sombre, noir », lui a été donné en référence à sa couleur.
 Le genre Bothrolycus fait référence au fait que se retrouve chez cette espèce (unique représentant du genre) des caractéristiques propres au genre Bothrophthalmus et au genre Lycodon
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1874 : Description of some new or imperfectly known species of Reptiles from the Cameroon Mountains. Proceedings of the Zoological Society of London, vol. 1874, p. 442-445 (texte intégral).</t>
         </is>
